--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2671,10 +2683,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2718,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2764,28 +2776,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2902,10 +2914,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2949,28 +2961,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2995,28 +3007,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3405,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3440,28 +3452,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3498,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3607,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3642,28 +3654,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3700,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3797,10 +3809,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3844,28 +3856,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3890,28 +3902,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4029,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4075,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4357,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4392,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4450,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4778,10 +4790,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4825,28 +4837,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4871,28 +4883,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5009,10 +5021,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5056,28 +5068,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5102,28 +5114,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5223,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5258,28 +5270,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5316,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5413,10 +5425,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5460,28 +5472,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5506,28 +5518,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5644,10 +5656,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5691,28 +5703,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5737,28 +5749,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5875,10 +5887,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5922,28 +5934,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5968,28 +5980,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6135,10 +6147,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6182,28 +6194,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6228,28 +6240,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6337,10 +6349,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6384,28 +6396,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6430,28 +6442,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6597,10 +6609,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6644,28 +6656,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6690,28 +6702,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6840,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6933,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7030,10 +7042,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7077,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7123,28 +7135,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7215,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7250,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7296,28 +7308,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7607,10 +7619,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7654,28 +7666,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7700,28 +7712,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7809,10 +7821,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7856,28 +7868,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7902,28 +7914,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8184,10 +8196,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8231,28 +8243,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8277,28 +8289,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8386,10 +8398,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8433,28 +8445,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8479,28 +8491,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8600,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8635,28 +8647,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8693,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8761,10 +8773,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8808,28 +8820,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8854,28 +8866,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8975,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
